--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -436,7 +436,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>846814.23</v>
+        <v>994314.84</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,50 +393,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2">
-        <v>162593.82</v>
+        <v>950468.77</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3">
-        <v>957144.34</v>
+        <v>1766113.68</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B4">
-        <v>1772367.68</v>
+        <v>2842827.64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5">
-        <v>2845386.58</v>
+        <v>4442894.22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B6">
-        <v>4448153.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <v>994314.84</v>
+        <v>1014612.85</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
-    <t>total_item</t>
+    <t>Cadastrado</t>
+  </si>
+  <si>
+    <t>Sem Cadastro</t>
   </si>
 </sst>
 </file>
@@ -377,58 +380,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>17536.47</v>
+      </c>
+      <c r="C2">
+        <v>6329.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B2">
-        <v>950468.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="B3">
+        <v>252101.08</v>
+      </c>
+      <c r="C3">
+        <v>27817.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>2022</v>
       </c>
-      <c r="B3">
-        <v>1766113.68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="B4">
+        <v>489664.5</v>
+      </c>
+      <c r="C4">
+        <v>14684.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>2023</v>
       </c>
-      <c r="B4">
-        <v>2842827.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="B5">
+        <v>791532.51</v>
+      </c>
+      <c r="C5">
+        <v>10932.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>2024</v>
       </c>
-      <c r="B5">
-        <v>4442894.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="B6">
+        <v>1184081.5</v>
+      </c>
+      <c r="C6">
+        <v>12980.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>2025</v>
       </c>
-      <c r="B6">
-        <v>1014612.85</v>
+      <c r="B7">
+        <v>391120.88</v>
+      </c>
+      <c r="C7">
+        <v>5486.44</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>391120.88</v>
+        <v>416013.97</v>
       </c>
       <c r="C7">
-        <v>5486.44</v>
+        <v>5658.94</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -402,10 +402,10 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>17536.47</v>
+        <v>102246.19</v>
       </c>
       <c r="C2">
-        <v>6329.94</v>
+        <v>13791.47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>252101.08</v>
+        <v>910258.05</v>
       </c>
       <c r="C3">
-        <v>27817.06</v>
+        <v>46548.14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>489664.5</v>
+        <v>1749720.49</v>
       </c>
       <c r="C4">
-        <v>14684.78</v>
+        <v>22690.39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>791532.51</v>
+        <v>2824609.64</v>
       </c>
       <c r="C5">
-        <v>10932.38</v>
+        <v>21541.02</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>1184081.5</v>
+        <v>4430583.14</v>
       </c>
       <c r="C6">
-        <v>12980.97</v>
+        <v>26899.54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>416013.97</v>
+        <v>1974408.92</v>
       </c>
       <c r="C7">
-        <v>5658.94</v>
+        <v>14642.46</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>Cadastrado</t>
-  </si>
-  <si>
-    <t>Sem Cadastro</t>
   </si>
 </sst>
 </file>
@@ -380,87 +377,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>102246.19</v>
-      </c>
-      <c r="C2">
-        <v>13791.47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>115677.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>910258.05</v>
-      </c>
-      <c r="C3">
-        <v>46548.14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>953108.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>1749720.49</v>
-      </c>
-      <c r="C4">
-        <v>22690.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1786705.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>2824609.64</v>
-      </c>
-      <c r="C5">
-        <v>21541.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>2885974.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>4430583.14</v>
-      </c>
-      <c r="C6">
-        <v>26899.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4517432.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1974408.92</v>
-      </c>
-      <c r="C7">
-        <v>14642.46</v>
+        <v>1774017.75</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>Cadastrado</t>
+  </si>
+  <si>
+    <t>Sem Cadastro</t>
   </si>
 </sst>
 </file>
@@ -377,66 +380,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>115677.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>102012.86</v>
+      </c>
+      <c r="C2">
+        <v>13664.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>953108.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>906814.4</v>
+      </c>
+      <c r="C3">
+        <v>46293.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>1786705.19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1768046.15</v>
+      </c>
+      <c r="C4">
+        <v>18659.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>2885974.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>2869200.58</v>
+      </c>
+      <c r="C5">
+        <v>16773.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>4517432.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>4501569.72</v>
+      </c>
+      <c r="C6">
+        <v>15863.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1774017.75</v>
+        <v>1906073.08</v>
+      </c>
+      <c r="C7">
+        <v>4029.02</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1906073.08</v>
+        <v>1955612.7</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1955612.7</v>
+        <v>1971507.77</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1971507.77</v>
+        <v>1989129.77</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1989129.77</v>
+        <v>1998808.34</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1998808.34</v>
+        <v>2034294.65</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2034294.65</v>
+        <v>2050383.43</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2050383.43</v>
+        <v>2101952.06</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2101952.06</v>
+        <v>2138447.93</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2138447.93</v>
+        <v>2172777.49</v>
       </c>
       <c r="C7">
         <v>4029.02</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2172777.49</v>
+        <v>2193567.99</v>
       </c>
       <c r="C7">
-        <v>4029.02</v>
+        <v>4136.27</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -413,10 +413,10 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>906814.4</v>
+        <v>909716.14</v>
       </c>
       <c r="C3">
-        <v>46293.98</v>
+        <v>46448.4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>1768046.15</v>
+        <v>1749677.29</v>
       </c>
       <c r="C4">
-        <v>18659.04</v>
+        <v>22690.39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>2869200.58</v>
+        <v>2823826.46</v>
       </c>
       <c r="C5">
-        <v>16773.44</v>
+        <v>21376.22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>4501569.72</v>
+        <v>4420458.1</v>
       </c>
       <c r="C6">
-        <v>15863.05</v>
+        <v>26899.54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2193567.99</v>
+        <v>2259434.43</v>
       </c>
       <c r="C7">
-        <v>4136.27</v>
+        <v>13169.03</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -402,10 +402,10 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>102012.86</v>
+        <v>101964.37</v>
       </c>
       <c r="C2">
-        <v>13664.65</v>
+        <v>13544.65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>909716.14</v>
       </c>
       <c r="C3">
-        <v>46448.4</v>
+        <v>46444.4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>1749677.29</v>
+        <v>1749646.5</v>
       </c>
       <c r="C4">
-        <v>22690.39</v>
+        <v>22553.9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>2823826.46</v>
+        <v>2822961.3</v>
       </c>
       <c r="C5">
-        <v>21376.22</v>
+        <v>20181.14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>4420458.1</v>
+        <v>4416713.12</v>
       </c>
       <c r="C6">
-        <v>26899.54</v>
+        <v>26365</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2259434.43</v>
+        <v>2268166.05</v>
       </c>
       <c r="C7">
-        <v>13169.03</v>
+        <v>12953.54</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2268166.05</v>
+        <v>2273444.5</v>
       </c>
       <c r="C7">
         <v>12953.54</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2273444.5</v>
+        <v>2292965.06</v>
       </c>
       <c r="C7">
-        <v>12953.54</v>
+        <v>13189.79</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2292965.06</v>
+        <v>2310064.79</v>
       </c>
       <c r="C7">
-        <v>13189.79</v>
+        <v>13201.49</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2310064.79</v>
+        <v>2318177.59</v>
       </c>
       <c r="C7">
-        <v>13201.49</v>
+        <v>13343.09</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2318177.59</v>
+        <v>2343352.51</v>
       </c>
       <c r="C7">
-        <v>13343.09</v>
+        <v>13369.84</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2343352.51</v>
+        <v>2358423.94</v>
       </c>
       <c r="C7">
-        <v>13369.84</v>
+        <v>13371.34</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2358423.94</v>
+        <v>2373185.27</v>
       </c>
       <c r="C7">
-        <v>13371.34</v>
+        <v>13513.18</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2373185.27</v>
+        <v>2376227.55</v>
       </c>
       <c r="C7">
-        <v>13513.18</v>
+        <v>13554.53</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2376227.55</v>
+        <v>2444430.41</v>
       </c>
       <c r="C7">
         <v>13554.53</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2444430.41</v>
+        <v>2459982.15</v>
       </c>
       <c r="C7">
-        <v>13554.53</v>
+        <v>14061.68</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2459982.15</v>
+        <v>2477318.57</v>
       </c>
       <c r="C7">
-        <v>14061.68</v>
+        <v>14095.98</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2477318.57</v>
+        <v>2505852.87</v>
       </c>
       <c r="C7">
-        <v>14095.98</v>
+        <v>14305.33</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2505852.87</v>
+        <v>2515246.8</v>
       </c>
       <c r="C7">
-        <v>14305.33</v>
+        <v>14335.28</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2515246.8</v>
+        <v>2577780.58</v>
       </c>
       <c r="C7">
-        <v>14335.28</v>
+        <v>14537.48</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2577780.58</v>
+        <v>2612560.24</v>
       </c>
       <c r="C7">
-        <v>14537.48</v>
+        <v>14541.93</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2612560.24</v>
+        <v>2647462.52</v>
       </c>
       <c r="C7">
-        <v>14541.93</v>
+        <v>14605.68</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2647462.52</v>
+        <v>2664841.98</v>
       </c>
       <c r="C7">
-        <v>14605.68</v>
+        <v>14651.93</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2664841.98</v>
+        <v>2678245.88</v>
       </c>
       <c r="C7">
-        <v>14651.93</v>
+        <v>14685.78</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2678245.88</v>
+        <v>2707812.33</v>
       </c>
       <c r="C7">
-        <v>14685.78</v>
+        <v>14698.38</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2707812.33</v>
+        <v>2725222.33</v>
       </c>
       <c r="C7">
-        <v>14698.38</v>
+        <v>14759.58</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2725222.33</v>
+        <v>2740745.25</v>
       </c>
       <c r="C7">
-        <v>14759.58</v>
+        <v>14862.38</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,7 +457,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2740745.25</v>
+        <v>2751053.64</v>
       </c>
       <c r="C7">
         <v>14862.38</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2751053.64</v>
+        <v>2773618.74</v>
       </c>
       <c r="C7">
-        <v>14862.38</v>
+        <v>14934.88</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2773618.74</v>
+        <v>2792135.09</v>
       </c>
       <c r="C7">
-        <v>14934.88</v>
+        <v>14941.33</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2792135.09</v>
+        <v>2848722.54</v>
       </c>
       <c r="C7">
-        <v>14941.33</v>
+        <v>14945.78</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2848722.54</v>
+        <v>2864227.94</v>
       </c>
       <c r="C7">
-        <v>14945.78</v>
+        <v>15116.78</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2864227.94</v>
+        <v>2878155.74</v>
       </c>
       <c r="C7">
-        <v>15116.78</v>
+        <v>15121.18</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2878155.74</v>
+        <v>2887303.24</v>
       </c>
       <c r="C7">
-        <v>15121.18</v>
+        <v>15154.08</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2887303.24</v>
+        <v>2901100.29</v>
       </c>
       <c r="C7">
-        <v>15154.08</v>
+        <v>15165.73</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2901100.29</v>
+        <v>2910474.15</v>
       </c>
       <c r="C7">
-        <v>15165.73</v>
+        <v>15283.23</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2910474.15</v>
+        <v>2922074.18</v>
       </c>
       <c r="C7">
-        <v>15283.23</v>
+        <v>15313.33</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2922074.18</v>
+        <v>2927788.63</v>
       </c>
       <c r="C7">
-        <v>15313.33</v>
+        <v>15419.48</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2927788.63</v>
+        <v>2941726.8</v>
       </c>
       <c r="C7">
-        <v>15419.48</v>
+        <v>15454.63</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2941726.8</v>
+        <v>2952469.67</v>
       </c>
       <c r="C7">
-        <v>15454.63</v>
+        <v>15472.93</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2952469.67</v>
+        <v>3460036.38</v>
       </c>
       <c r="C7">
-        <v>15472.93</v>
+        <v>15531.83</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3460036.38</v>
+        <v>3501942.24</v>
       </c>
       <c r="C7">
-        <v>15531.83</v>
+        <v>15539.28</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3501942.24</v>
+        <v>3537359.55</v>
       </c>
       <c r="C7">
-        <v>15539.28</v>
+        <v>15566.58</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3537359.55</v>
+        <v>3582421.26</v>
       </c>
       <c r="C7">
-        <v>15566.58</v>
+        <v>15672.48</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3582421.26</v>
+        <v>3617441.56</v>
       </c>
       <c r="C7">
-        <v>15672.48</v>
+        <v>15674.23</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3617441.56</v>
+        <v>3631796.45</v>
       </c>
       <c r="C7">
-        <v>15674.23</v>
+        <v>15745.18</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3631796.45</v>
+        <v>3649006.97</v>
       </c>
       <c r="C7">
-        <v>15745.18</v>
+        <v>15763.13</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3649006.97</v>
+        <v>3689427.53</v>
       </c>
       <c r="C7">
-        <v>15763.13</v>
+        <v>16056.68</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3689427.53</v>
+        <v>3704939.78</v>
       </c>
       <c r="C7">
-        <v>16056.68</v>
+        <v>16172.43</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3704939.78</v>
+        <v>3736428.32</v>
       </c>
       <c r="C7">
-        <v>16172.43</v>
+        <v>16423.43</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3736428.32</v>
+        <v>3762253.33</v>
       </c>
       <c r="C7">
-        <v>16423.43</v>
+        <v>16555.43</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3762253.33</v>
+        <v>3812822.37</v>
       </c>
       <c r="C7">
-        <v>16555.43</v>
+        <v>16589.23</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3812822.37</v>
+        <v>3918432.87</v>
       </c>
       <c r="C7">
-        <v>16589.23</v>
+        <v>16850.58</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3918432.87</v>
+        <v>3928913.07</v>
       </c>
       <c r="C7">
-        <v>16850.58</v>
+        <v>16864.18</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual_geral.xlsx
@@ -457,10 +457,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3928913.07</v>
+        <v>3975995.71</v>
       </c>
       <c r="C7">
-        <v>16864.18</v>
+        <v>16875.08</v>
       </c>
     </row>
   </sheetData>
